--- a/forecast_summary_B091HTG6DQ.xlsx
+++ b/forecast_summary_B091HTG6DQ.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C2" t="n">
         <v>943.8413581231138</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.524428982669</v>
+        <v>1369.590525769966</v>
       </c>
       <c r="E2" t="n">
         <v>1082</v>
@@ -511,6 +516,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C3" t="n">
         <v>1118.843769581673</v>
       </c>
       <c r="D3" t="n">
-        <v>1595.38607654501</v>
+        <v>1554.588433603266</v>
       </c>
       <c r="E3" t="n">
         <v>887</v>
@@ -547,6 +555,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>1186.550003342315</v>
       </c>
       <c r="D4" t="n">
-        <v>1608.512022254241</v>
+        <v>1613.97612840437</v>
       </c>
       <c r="E4" t="n">
         <v>894</v>
@@ -583,6 +594,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C5" t="n">
         <v>1075.770142711635</v>
       </c>
       <c r="D5" t="n">
-        <v>1515.02877749355</v>
+        <v>1508.36252077326</v>
       </c>
       <c r="E5" t="n">
         <v>648</v>
@@ -619,6 +633,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,13 +643,13 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C6" t="n">
         <v>915.7481584362249</v>
       </c>
       <c r="D6" t="n">
-        <v>1338.944096848907</v>
+        <v>1373.255176522475</v>
       </c>
       <c r="E6" t="n">
         <v>629</v>
@@ -655,6 +672,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C7" t="n">
         <v>871.876364426564</v>
       </c>
       <c r="D7" t="n">
-        <v>1304.210778987875</v>
+        <v>1311.843620363713</v>
       </c>
       <c r="E7" t="n">
         <v>643</v>
@@ -691,6 +711,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>934.1970320266348</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.17893687354</v>
+        <v>1362.046406302253</v>
       </c>
       <c r="E8" t="n">
         <v>603</v>
@@ -727,6 +750,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C9" t="n">
         <v>944.109480699109</v>
       </c>
       <c r="D9" t="n">
-        <v>1355.435558508952</v>
+        <v>1371.896673093563</v>
       </c>
       <c r="E9" t="n">
         <v>625</v>
@@ -763,6 +789,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C10" t="n">
         <v>824.0129044558283</v>
       </c>
       <c r="D10" t="n">
-        <v>1275.172758096559</v>
+        <v>1253.220202459669</v>
       </c>
       <c r="E10" t="n">
         <v>588</v>
@@ -799,6 +828,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C11" t="n">
         <v>698.1416313213047</v>
       </c>
       <c r="D11" t="n">
-        <v>1106.861632303671</v>
+        <v>1121.442903455122</v>
       </c>
       <c r="E11" t="n">
         <v>591</v>
@@ -835,6 +867,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -842,13 +877,13 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C12" t="n">
         <v>733.9996586100573</v>
       </c>
       <c r="D12" t="n">
-        <v>1196.091403022747</v>
+        <v>1182.779537673786</v>
       </c>
       <c r="E12" t="n">
         <v>591</v>
@@ -871,6 +906,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C13" t="n">
         <v>909.8183429335446</v>
       </c>
       <c r="D13" t="n">
-        <v>1344.330075352335</v>
+        <v>1317.55890350785</v>
       </c>
       <c r="E13" t="n">
         <v>583</v>
@@ -907,6 +945,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C14" t="n">
         <v>1022.780598971108</v>
       </c>
       <c r="D14" t="n">
-        <v>1440.45956595066</v>
+        <v>1464.046898452196</v>
       </c>
       <c r="E14" t="n">
         <v>577</v>
@@ -943,6 +984,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>940.7581937975029</v>
       </c>
       <c r="D15" t="n">
-        <v>1361.850355731466</v>
+        <v>1362.67917021096</v>
       </c>
       <c r="E15" t="n">
         <v>566</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C16" t="n">
         <v>773.3892144267376</v>
       </c>
       <c r="D16" t="n">
-        <v>1179.511467280481</v>
+        <v>1194.081365488794</v>
       </c>
       <c r="E16" t="n">
         <v>564</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C17" t="n">
         <v>733.8407675588032</v>
       </c>
       <c r="D17" t="n">
-        <v>1192.915153801587</v>
+        <v>1153.92949607405</v>
       </c>
       <c r="E17" t="n">
         <v>565</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C18" t="n">
         <v>865.7399516901723</v>
       </c>
       <c r="D18" t="n">
-        <v>1297.313721670725</v>
+        <v>1306.113891394895</v>
       </c>
       <c r="E18" t="n">
         <v>567</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="C19" t="n">
         <v>992.1534819404283</v>
       </c>
       <c r="D19" t="n">
-        <v>1391.111716814217</v>
+        <v>1440.131489998331</v>
       </c>
       <c r="E19" t="n">
         <v>553</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>956.2427690738953</v>
       </c>
       <c r="D20" t="n">
-        <v>1379.060695337332</v>
+        <v>1381.779035541186</v>
       </c>
       <c r="E20" t="n">
         <v>571</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1166,13 +1228,13 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C21" t="n">
         <v>836.2635507840869</v>
       </c>
       <c r="D21" t="n">
-        <v>1275.171259417147</v>
+        <v>1259.742706555552</v>
       </c>
       <c r="E21" t="n">
         <v>548</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>GC-WBAX210</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15320</t>
+          <t>15315</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4496</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>740</t>
         </is>
       </c>
     </row>
